--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D778B2-0CDC-2D47-A157-75FFD1143A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCABFEC-FF37-434E-8E77-689FEDFF855B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34600" yWindow="-1520" windowWidth="32600" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="-1520" windowWidth="36480" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="current file" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="72">
   <si>
     <t>Country</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">Amir Salem </t>
+  </si>
+  <si>
+    <t>Vacation</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,313 +683,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="59">
     <dxf>
       <font>
         <b/>
@@ -1015,6 +721,335 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1569,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1754,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>38</v>
@@ -2146,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>38</v>
@@ -2267,137 +2302,137 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2409,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD1EFB6-BACC-F84F-8F1D-71410E29F012}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2442,7 +2477,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="50">
@@ -2461,7 +2496,7 @@
       <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="47">
@@ -2499,7 +2534,7 @@
       <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="46">
@@ -2652,7 +2687,7 @@
       <c r="E12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="62" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2673,7 +2708,7 @@
       <c r="E13" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="62" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2754,8 +2789,8 @@
       <c r="F17" s="27"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E17">
-    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="B2:D17">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4070,152 +4105,152 @@
     <mergeCell ref="I17:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCABFEC-FF37-434E-8E77-689FEDFF855B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF801B6-E6FE-144B-8FA0-C2F14C42C5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="-1520" windowWidth="36480" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="73">
   <si>
     <t>Country</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Vacation</t>
+  </si>
+  <si>
+    <t>Amir Salem </t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,45 +657,346 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -721,335 +1025,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1605,7 +1580,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1698,7 +1673,7 @@
       <c r="J2" s="27">
         <v>1</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="63" t="s">
         <v>41</v>
       </c>
       <c r="L2" s="27" t="s">
@@ -1736,7 +1711,7 @@
       <c r="J3" s="21">
         <v>2</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="63" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="21" t="s">
@@ -1774,8 +1749,8 @@
       <c r="J4" s="14">
         <v>1</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>21</v>
+      <c r="K4" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>69</v>
@@ -1812,7 +1787,7 @@
       <c r="J5" s="27">
         <v>1</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="63" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="27" t="s">
@@ -1850,8 +1825,8 @@
       <c r="J6" s="14">
         <v>1</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>70</v>
+      <c r="K6" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>69</v>
@@ -1890,7 +1865,7 @@
       <c r="J7" s="21">
         <v>1</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="63" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="21" t="s">
@@ -1930,7 +1905,7 @@
       <c r="J8" s="27">
         <v>2</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="63" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="33" t="s">
@@ -1968,8 +1943,8 @@
       <c r="J9" s="14">
         <v>1</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>33</v>
+      <c r="K9" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>69</v>
@@ -2008,7 +1983,7 @@
       <c r="J10" s="21">
         <v>1</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="63" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="21" t="s">
@@ -2046,7 +2021,7 @@
       <c r="J11" s="14">
         <v>1</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="63" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="35" t="s">
@@ -2084,7 +2059,7 @@
       <c r="J12" s="27">
         <v>1</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="63" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="33" t="s">
@@ -2125,7 +2100,7 @@
       <c r="J13" s="21">
         <v>2</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="63" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="35" t="s">
@@ -2166,7 +2141,7 @@
       <c r="J14" s="27">
         <v>1</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="63" t="s">
         <v>64</v>
       </c>
       <c r="L14" s="33" t="s">
@@ -2206,7 +2181,7 @@
       <c r="J15" s="14">
         <v>1</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="63" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="14" t="s">
@@ -2244,7 +2219,7 @@
       <c r="J16" s="21">
         <v>1</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="63" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="21" t="s">
@@ -2282,7 +2257,7 @@
       <c r="J17" s="27">
         <v>1</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="63" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="33" t="s">
@@ -2302,137 +2277,137 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="54" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="47" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2687,7 +2662,7 @@
       <c r="E12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="52" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2708,7 +2683,7 @@
       <c r="E13" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="52" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2790,7 +2765,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D17">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
       <formula>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2872,13 +2847,13 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="53" t="str">
+      <c r="F4" s="54" t="str">
         <f>O5</f>
         <v>BP</v>
       </c>
@@ -2928,9 +2903,9 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -2979,9 +2954,9 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3026,13 +3001,13 @@
       <c r="A7" s="6">
         <v>43516</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="60" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -3077,11 +3052,11 @@
       <c r="A8" s="6">
         <v>43517</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="53" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="31"/>
@@ -3128,11 +3103,11 @@
       <c r="A9" s="6">
         <v>43518</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -3177,13 +3152,13 @@
       <c r="A10" s="6">
         <v>43519</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="61" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
@@ -3230,12 +3205,12 @@
       <c r="A11" s="6">
         <v>43520</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="57" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="31"/>
@@ -3283,12 +3258,12 @@
       <c r="A12" s="6">
         <v>43521</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="57"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="M12" s="9">
@@ -3332,12 +3307,12 @@
       <c r="A13" s="6">
         <v>43522</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="57"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="M13" s="15">
@@ -3383,12 +3358,12 @@
       <c r="A14" s="6">
         <v>43523</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="57"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="M14" s="22">
@@ -3432,17 +3407,17 @@
       <c r="A15" s="6">
         <v>43524</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="59" t="s">
+      <c r="B15" s="61"/>
+      <c r="C15" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="54" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="53" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="54" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="31"/>
@@ -3490,13 +3465,13 @@
       <c r="A16" s="6">
         <v>43525</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="53"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="53"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="31"/>
       <c r="M16" s="15">
         <v>14</v>
@@ -3542,14 +3517,14 @@
       <c r="A17" s="6">
         <v>43526</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="53"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="55" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="62" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="22">
@@ -3594,13 +3569,13 @@
         <v>43527</v>
       </c>
       <c r="B18" s="30"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="53"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="62"/>
       <c r="M18" s="9">
         <v>4</v>
       </c>
@@ -3645,13 +3620,13 @@
         <v>43528</v>
       </c>
       <c r="B19" s="30"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="62"/>
       <c r="M19" s="15">
         <v>12</v>
       </c>
@@ -3694,13 +3669,13 @@
         <v>43529</v>
       </c>
       <c r="B20" s="30"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="62"/>
       <c r="M20" s="22">
         <v>16</v>
       </c>
@@ -3743,117 +3718,117 @@
         <v>43530</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43531</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43532</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43533</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="53"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43534</v>
       </c>
       <c r="B25" s="30"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43535</v>
       </c>
       <c r="B26" s="30"/>
-      <c r="C26" s="60"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="57"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="55"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43536</v>
       </c>
       <c r="B27" s="30"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="57"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="55"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43537</v>
       </c>
       <c r="B28" s="30"/>
-      <c r="C28" s="60"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="57"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="55"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>43538</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="61"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="57"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="31"/>
-      <c r="I29" s="55"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -3864,9 +3839,9 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="57"/>
+      <c r="G30" s="55"/>
       <c r="H30" s="31"/>
-      <c r="I30" s="55"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -3877,9 +3852,9 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="57"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="31"/>
-      <c r="I31" s="55"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -3890,9 +3865,9 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="57"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="31"/>
-      <c r="I32" s="55"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
@@ -3900,13 +3875,13 @@
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="53" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="56" t="s">
+      <c r="G33" s="56"/>
+      <c r="H33" s="53" t="s">
         <v>54</v>
       </c>
       <c r="I33" s="40" t="s">
@@ -3918,13 +3893,13 @@
         <v>43555</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="38"/>
       <c r="F34" s="8"/>
-      <c r="H34" s="56"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3932,7 +3907,7 @@
         <v>43562</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="53"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="31"/>
       <c r="E35" s="38"/>
       <c r="F35" s="8"/>
@@ -4089,6 +4064,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="I17:I32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="E4:E14"/>
@@ -4098,159 +4078,154 @@
     <mergeCell ref="H15:H25"/>
     <mergeCell ref="D15:D25"/>
     <mergeCell ref="C15:C29"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="I17:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF801B6-E6FE-144B-8FA0-C2F14C42C5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA12C5C-E9CA-B34F-BAB3-7649A1EEF7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="-1520" windowWidth="36480" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="74">
   <si>
     <t>Country</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Amir Salem </t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1583,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,8 +1679,8 @@
       <c r="K2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>69</v>
+      <c r="L2" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1753,7 +1756,7 @@
         <v>72</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1790,8 +1793,8 @@
       <c r="K5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>69</v>
+      <c r="L5" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1829,7 +1832,7 @@
         <v>72</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1868,8 +1871,8 @@
       <c r="K7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="21" t="s">
-        <v>69</v>
+      <c r="L7" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1947,7 +1950,7 @@
         <v>64</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1986,8 +1989,8 @@
       <c r="K10" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>69</v>
+      <c r="L10" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2024,8 +2027,8 @@
       <c r="K11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="35" t="s">
-        <v>69</v>
+      <c r="L11" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2062,8 +2065,8 @@
       <c r="K12" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="33" t="s">
-        <v>69</v>
+      <c r="L12" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="M12" s="39" t="s">
         <v>61</v>
@@ -2144,8 +2147,8 @@
       <c r="K14" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="33" t="s">
-        <v>69</v>
+      <c r="L14" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2185,7 +2188,7 @@
         <v>64</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2222,8 +2225,8 @@
       <c r="K16" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="21" t="s">
-        <v>69</v>
+      <c r="L16" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2260,8 +2263,8 @@
       <c r="K17" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="33" t="s">
-        <v>69</v>
+      <c r="L17" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA12C5C-E9CA-B34F-BAB3-7649A1EEF7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6FB68A-041D-9046-8C35-8C86F88ED0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="-1520" windowWidth="36480" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29900" yWindow="-660" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="current file" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="Poposed file" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="7" r:id="rId3"/>
+    <sheet name="Poposed file" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'current file'!$A$1:$L$1</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="75">
   <si>
     <t>Country</t>
   </si>
@@ -257,6 +258,9 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>Egypt, Cairo</t>
   </si>
 </sst>
 </file>
@@ -699,7 +703,36 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1583,7 +1616,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1880,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>7</v>
@@ -2280,137 +2313,137 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2768,7 +2801,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D17">
-    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
       <formula>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2785,14 +2818,378 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FCD9DD-B167-CD4B-BC32-8C1190E10619}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="50">
+        <v>43511</v>
+      </c>
+      <c r="C2" s="46">
+        <f>B2+6</f>
+        <v>43517</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="47">
+        <v>43513</v>
+      </c>
+      <c r="C3" s="47">
+        <f>B3+10</f>
+        <v>43523</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="48">
+        <v>43516</v>
+      </c>
+      <c r="C4" s="48">
+        <f>B4+3</f>
+        <v>43519</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="46">
+        <v>43515</v>
+      </c>
+      <c r="C5" s="46">
+        <f>B5+7</f>
+        <v>43522</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="48">
+        <v>43519</v>
+      </c>
+      <c r="C6" s="48">
+        <f>B6+7</f>
+        <v>43526</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="I6" t="b">
+        <f>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="47">
+        <v>43520</v>
+      </c>
+      <c r="C7" s="47">
+        <f>B7+30</f>
+        <v>43550</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46">
+        <v>43524</v>
+      </c>
+      <c r="C8" s="46">
+        <f>B8+10</f>
+        <v>43534</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="48">
+        <v>43524</v>
+      </c>
+      <c r="C9" s="48">
+        <f>B9+14</f>
+        <v>43538</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="47">
+        <v>43526</v>
+      </c>
+      <c r="C10" s="47">
+        <f>B10+15</f>
+        <v>43541</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="48">
+        <v>43539</v>
+      </c>
+      <c r="C11" s="48">
+        <f>B11+15</f>
+        <v>43554</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="46">
+        <v>43541</v>
+      </c>
+      <c r="C12" s="46">
+        <f>B12+7</f>
+        <v>43548</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="47">
+        <v>43544</v>
+      </c>
+      <c r="C13" s="47">
+        <f>B13+10</f>
+        <v>43554</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="46">
+        <v>43556</v>
+      </c>
+      <c r="C14" s="46">
+        <f>B14+12</f>
+        <v>43568</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="48">
+        <v>43586</v>
+      </c>
+      <c r="C15" s="48">
+        <f>B15+5</f>
+        <v>43591</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="47">
+        <v>43586</v>
+      </c>
+      <c r="C16" s="47">
+        <f>B16+10</f>
+        <v>43596</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="46">
+        <v>43647</v>
+      </c>
+      <c r="C17" s="46">
+        <f>B17+10</f>
+        <v>43657</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:D17">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" error="Fix Date Collision" sqref="A2:E17" xr:uid="{D927535F-364F-9147-A871-905C3C09DE8C}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Clashing Timings" sqref="I6" xr:uid="{70FA1A24-E2EB-7147-BAEE-30D5F0D0C6C0}">
+      <formula1>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:Y51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:Z4"/>
+      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4083,152 +4480,152 @@
     <mergeCell ref="C15:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
